--- a/Product/SettingSource/stg_card.xlsx
+++ b/Product/SettingSource/stg_card.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +468,11 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -476,8 +491,11 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -496,8 +514,11 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>

--- a/Product/SettingSource/stg_card.xlsx
+++ b/Product/SettingSource/stg_card.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEISHUI_DESC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +448,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,6 +531,9 @@
       </c>
       <c r="E4">
         <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Product/SettingSource/stg_card.xlsx
+++ b/Product/SettingSource/stg_card.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -99,6 +99,30 @@
   </si>
   <si>
     <t>BEISHUI_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple_atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple_tex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardSimple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +499,14 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -498,8 +528,14 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -521,8 +557,14 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -534,6 +576,9 @@
       </c>
       <c r="G4" t="s">
         <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
